--- a/DS_Design Report/comparaisons_a-arms.xlsx
+++ b/DS_Design Report/comparaisons_a-arms.xlsx
@@ -12,7 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bilan" sheetId="3" r:id="rId1"/>
+    <sheet name="Masse" sheetId="1" r:id="rId2"/>
+    <sheet name="Couts" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>Inserts chassis</t>
   </si>
@@ -93,13 +95,62 @@
   </si>
   <si>
     <t>(sans rotules/porte rotule)</t>
+  </si>
+  <si>
+    <t>Poids / mm tubes alu (g)</t>
+  </si>
+  <si>
+    <t>Diam ext 20 * 2</t>
+  </si>
+  <si>
+    <t>Solutions</t>
+  </si>
+  <si>
+    <t>Acier</t>
+  </si>
+  <si>
+    <t>Alu</t>
+  </si>
+  <si>
+    <t>Alu-carbone</t>
+  </si>
+  <si>
+    <t>Usinages</t>
+  </si>
+  <si>
+    <t>Soudure</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Divers</t>
+  </si>
+  <si>
+    <t>masse total (g)</t>
+  </si>
+  <si>
+    <t>Couts</t>
+  </si>
+  <si>
+    <t>Masse</t>
+  </si>
+  <si>
+    <t>Ratio euros /g % acier</t>
+  </si>
+  <si>
+    <t>Ratio euros /g % alu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,8 +172,15 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,6 +190,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -171,21 +235,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,19 +533,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="10">
+        <f>Couts!F2</f>
+        <v>600</v>
+      </c>
+      <c r="C2" s="10">
+        <f>Couts!F3</f>
+        <v>2010</v>
+      </c>
+      <c r="D2" s="10">
+        <f>Couts!F4</f>
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="6">
+        <f>Masse!D10</f>
+        <v>5974.5159420289856</v>
+      </c>
+      <c r="C3" s="6">
+        <f>Masse!I10</f>
+        <v>3069.137601010721</v>
+      </c>
+      <c r="D3" s="6">
+        <f>Masse!N10</f>
+        <v>1837.8981555199998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="9">
+        <f>(C2-B2)/(B3-C3)</f>
+        <v>0.48530684630416471</v>
+      </c>
+      <c r="D4" s="9">
+        <f>(D2-B2)/(B3-D3)</f>
+        <v>0.66479431794949717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="9">
+        <f>(D2-C2)/(C3-D3)</f>
+        <v>1.0883342025043157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -508,7 +672,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
@@ -518,7 +682,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>14</v>
@@ -530,31 +694,35 @@
         <v>10</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>31</v>
+      </c>
       <c r="C3" s="1">
         <v>16</v>
       </c>
       <c r="D3" s="1">
         <f>B3*C3</f>
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>25</v>
+      </c>
       <c r="H3" s="1">
         <v>16</v>
       </c>
       <c r="I3" s="1">
         <f>G3*H3</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>0</v>
@@ -574,24 +742,28 @@
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>18</v>
+      </c>
       <c r="C4" s="1">
         <v>16</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:D9" si="0">B4*C4</f>
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
       <c r="H4" s="1">
         <v>16</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4:I9" si="1">G4*H4</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>12</v>
@@ -611,24 +783,29 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <f>2*15+300</f>
+        <v>330</v>
+      </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>60</v>
+      </c>
       <c r="H5" s="1">
         <v>2</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>5</v>
@@ -648,24 +825,29 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1">
+        <f>2*30+350</f>
+        <v>410</v>
+      </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>90</v>
+      </c>
       <c r="H6" s="1">
         <v>2</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>6</v>
@@ -685,24 +867,28 @@
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <v>170</v>
+      </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>30</v>
+      </c>
       <c r="H7" s="1">
         <v>2</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>7</v>
@@ -722,24 +908,28 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1">
+        <v>150</v>
+      </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>30</v>
+      </c>
       <c r="H8" s="1">
         <v>2</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>8</v>
@@ -759,36 +949,39 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1">
+      <c r="B9" s="7">
+        <f>160/345</f>
+        <v>0.46376811594202899</v>
+      </c>
+      <c r="C9" s="6">
         <f>229.5*4+370.3*2+372.6*2+359.7*2+137.9*2+428.3*2+257*2+290.9*2+96.8*2+294.4*2+243.5*2</f>
         <v>6620.8000000000011</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3070.515942028986</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
+      <c r="G9" s="5"/>
+      <c r="H9" s="6">
         <f>229.5*4+370.3*2+372.6*2+359.7*2+137.9*2+428.3*2+257*2+290.9*2+96.8*2+294.4*2+243.5*2</f>
         <v>6620.8000000000011</v>
       </c>
-      <c r="I9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="I9" s="6">
+        <f>H9*G12</f>
+        <v>2089.137601010721</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="8">
+      <c r="L9" s="5"/>
+      <c r="M9" s="6">
         <f>229.5*4+370.3*2+372.6*2+359.7*2+137.9*2+428.3*2+257*2+290.9*2+96.8*2+294.4*2+243.5*2</f>
         <v>6620.8000000000011</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="6">
         <f>L12*M9</f>
         <v>913.89815551999993</v>
       </c>
@@ -797,26 +990,33 @@
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="8">
         <f>SUM(D3:D9)</f>
-        <v>0</v>
+        <v>5974.5159420289856</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="8">
         <f>SUM(I3:I9)</f>
-        <v>0</v>
+        <v>3069.137601010721</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="8">
         <f>SUM(N3:N9)</f>
         <v>1837.8981555199998</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12">
+        <f>2790*1*PI()*(10*10-8*8)/1000000</f>
+        <v>0.31554156612655881</v>
+      </c>
       <c r="K12" t="s">
         <v>13</v>
       </c>
@@ -825,6 +1025,11 @@
         <v>0.13803439999999997</v>
       </c>
     </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>4</v>
@@ -851,14 +1056,14 @@
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="6">
         <f>N4/2+(96.77+290.92+294.4+243.52)*L12</f>
         <v>215.76602098399997</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <f>B16*C16</f>
         <v>431.53204196799993</v>
       </c>
@@ -934,7 +1139,7 @@
       <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="6">
         <f>SUM(D16:D20)</f>
         <v>1937.5320419679999</v>
       </c>
@@ -943,4 +1148,102 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="9">
+        <v>200</v>
+      </c>
+      <c r="C2" s="9">
+        <v>100</v>
+      </c>
+      <c r="D2" s="9">
+        <v>300</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <f>SUM(B2:E2)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1500</v>
+      </c>
+      <c r="C3" s="9">
+        <v>110</v>
+      </c>
+      <c r="D3" s="9">
+        <v>400</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:F4" si="0">SUM(B3:E3)</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2500</v>
+      </c>
+      <c r="C4" s="9">
+        <v>800</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>50</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" si="0"/>
+        <v>3350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>